--- a/data/financial_statements/soci/STE.xlsx
+++ b/data/financial_statements/soci/STE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1200517000</v>
+        <v>1201000000</v>
       </c>
       <c r="C2">
-        <v>1156491000</v>
+        <v>1156000000</v>
       </c>
       <c r="D2">
-        <v>1210686000</v>
+        <v>1211000000</v>
       </c>
       <c r="E2">
-        <v>1208971000</v>
+        <v>1209000000</v>
       </c>
       <c r="F2">
-        <v>1196985000</v>
+        <v>1197000000</v>
       </c>
       <c r="G2">
         <v>968422000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.003</v>
+        <v>0.0033</v>
       </c>
       <c r="C3">
-        <v>0.1942</v>
+        <v>0.1937</v>
       </c>
       <c r="D3">
-        <v>0.386</v>
+        <v>0.3863</v>
       </c>
       <c r="E3">
-        <v>0.4945</v>
+        <v>0.4946</v>
       </c>
       <c r="F3">
-        <v>0.583</v>
+        <v>0.5831</v>
       </c>
       <c r="G3">
         <v>0.4477</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>668182000</v>
+        <v>668000000</v>
       </c>
       <c r="C4">
-        <v>638693000</v>
+        <v>636000000</v>
       </c>
       <c r="D4">
-        <v>639064200</v>
+        <v>642000000</v>
       </c>
       <c r="E4">
-        <v>670857000</v>
+        <v>671000000</v>
       </c>
       <c r="F4">
-        <v>716641000</v>
+        <v>717000000</v>
       </c>
       <c r="G4">
         <v>542140000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>532335000</v>
+        <v>533000000</v>
       </c>
       <c r="C5">
-        <v>517798000</v>
+        <v>521000000</v>
       </c>
       <c r="D5">
-        <v>571621700</v>
+        <v>569000000</v>
       </c>
       <c r="E5">
-        <v>538114000</v>
+        <v>538000000</v>
       </c>
       <c r="F5">
-        <v>480344000</v>
+        <v>480000000</v>
       </c>
       <c r="G5">
         <v>426282000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>24928000</v>
+        <v>25000000</v>
       </c>
       <c r="C6">
-        <v>24751000</v>
+        <v>25000000</v>
       </c>
       <c r="D6">
-        <v>26096000</v>
+        <v>26000000</v>
       </c>
       <c r="E6">
-        <v>24824000</v>
+        <v>25000000</v>
       </c>
       <c r="F6">
-        <v>18832000</v>
+        <v>19000000</v>
       </c>
       <c r="G6">
         <v>18192000</v>
@@ -1224,8 +1335,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>323195000</v>
@@ -1240,7 +1351,7 @@
         <v>310564000</v>
       </c>
       <c r="F7">
-        <v>344799000</v>
+        <v>328000000</v>
       </c>
       <c r="G7">
         <v>393752000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>-306415200</v>
@@ -1468,8 +1579,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>26000000</v>
@@ -1506,8 +1617,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>26123000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-26647000</v>
+        <v>492000000</v>
       </c>
       <c r="C11">
-        <v>-23444000</v>
+        <v>4000000</v>
       </c>
       <c r="D11">
-        <v>-20394000</v>
+        <v>36000000</v>
       </c>
       <c r="E11">
-        <v>-20524000</v>
+        <v>9000000</v>
       </c>
       <c r="F11">
-        <v>-26896000</v>
+        <v>23000000</v>
       </c>
       <c r="G11">
         <v>-43301000</v>
@@ -1750,23 +1861,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>-333062000</v>
+        <v>-333000000</v>
       </c>
       <c r="C12">
-        <v>134951000</v>
+        <v>135000000</v>
       </c>
       <c r="D12">
-        <v>71464000</v>
+        <v>71000000</v>
       </c>
       <c r="E12">
-        <v>182409000</v>
+        <v>182000000</v>
       </c>
       <c r="F12">
-        <v>89607000</v>
+        <v>90000000</v>
       </c>
       <c r="G12">
         <v>-28977000</v>
@@ -1872,23 +1983,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>-17831000</v>
+        <v>-18000000</v>
       </c>
       <c r="C13">
-        <v>24196000</v>
+        <v>24000000</v>
       </c>
       <c r="D13">
-        <v>19411000</v>
+        <v>19000000</v>
       </c>
       <c r="E13">
-        <v>39315000</v>
+        <v>39000000</v>
       </c>
       <c r="F13">
-        <v>19982000</v>
+        <v>20000000</v>
       </c>
       <c r="G13">
         <v>-7075000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-315231000</v>
@@ -2116,8 +2227,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2151,8 +2262,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>54000</v>
@@ -2246,23 +2357,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>-315285000</v>
+        <v>-315000000</v>
       </c>
       <c r="C17">
-        <v>111262000</v>
+        <v>111000000</v>
       </c>
       <c r="D17">
-        <v>52261000</v>
+        <v>52000000</v>
       </c>
       <c r="E17">
-        <v>143623000</v>
+        <v>144000000</v>
       </c>
       <c r="F17">
-        <v>69811000</v>
+        <v>70000000</v>
       </c>
       <c r="G17">
         <v>-21807000</v>
@@ -2368,23 +2479,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-3.15</v>
       </c>
       <c r="C18">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="D18">
         <v>0.52</v>
       </c>
       <c r="E18">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F18">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G18">
         <v>-0.24</v>
@@ -2490,8 +2601,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-3.15</v>
@@ -2612,23 +2723,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>99969000</v>
+        <v>100000000</v>
       </c>
       <c r="C20">
-        <v>100082000</v>
+        <v>100000000</v>
       </c>
       <c r="D20">
-        <v>97535000</v>
+        <v>100000000</v>
       </c>
       <c r="E20">
-        <v>100038000</v>
+        <v>100000000</v>
       </c>
       <c r="F20">
-        <v>99848000</v>
+        <v>100000000</v>
       </c>
       <c r="G20">
         <v>90152000</v>
@@ -2734,23 +2845,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>99969000</v>
+        <v>100000000</v>
       </c>
       <c r="C21">
-        <v>100722000</v>
+        <v>101000000</v>
       </c>
       <c r="D21">
-        <v>98326000</v>
+        <v>101000000</v>
       </c>
       <c r="E21">
-        <v>100826000</v>
+        <v>101000000</v>
       </c>
       <c r="F21">
-        <v>100689000</v>
+        <v>101000000</v>
       </c>
       <c r="G21">
         <v>90992000</v>
@@ -2856,23 +2967,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.4434</v>
+        <v>0.4438</v>
       </c>
       <c r="C22">
-        <v>0.4477</v>
+        <v>0.4507</v>
       </c>
       <c r="D22">
-        <v>0.4721</v>
+        <v>0.4699</v>
       </c>
       <c r="E22">
-        <v>0.4451</v>
+        <v>0.445</v>
       </c>
       <c r="F22">
-        <v>0.4013</v>
+        <v>0.401</v>
       </c>
       <c r="G22">
         <v>0.4402</v>
@@ -2978,11 +3089,11 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>-0.2552</v>
+        <v>-0.2551</v>
       </c>
       <c r="C23">
         <v>0.137</v>
@@ -3100,23 +3211,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>-0.2774</v>
+        <v>-0.2773</v>
       </c>
       <c r="C24">
-        <v>0.1167</v>
+        <v>0.1168</v>
       </c>
       <c r="D24">
-        <v>0.059</v>
+        <v>0.0586</v>
       </c>
       <c r="E24">
-        <v>0.1509</v>
+        <v>0.1505</v>
       </c>
       <c r="F24">
-        <v>0.07489999999999999</v>
+        <v>0.0752</v>
       </c>
       <c r="G24">
         <v>-0.0299</v>
@@ -3222,23 +3333,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>-0.2626</v>
+        <v>-0.2623</v>
       </c>
       <c r="C25">
-        <v>0.09619999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="D25">
-        <v>0.0432</v>
+        <v>0.0429</v>
       </c>
       <c r="E25">
-        <v>0.1188</v>
+        <v>0.1191</v>
       </c>
       <c r="F25">
-        <v>0.0583</v>
+        <v>0.0585</v>
       </c>
       <c r="G25">
         <v>-0.0225</v>
@@ -3344,23 +3455,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>320505900</v>
+        <v>321000000</v>
       </c>
       <c r="C26">
-        <v>297258000</v>
+        <v>309000000</v>
       </c>
       <c r="D26">
-        <v>305686700</v>
+        <v>359000000</v>
       </c>
       <c r="E26">
-        <v>322054000</v>
+        <v>328000000</v>
       </c>
       <c r="F26">
-        <v>319699000</v>
+        <v>251000000</v>
       </c>
       <c r="G26">
         <v>97945000</v>
@@ -3466,8 +3577,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-306415200</v>
@@ -3588,8 +3699,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-315231000</v>
@@ -3710,23 +3821,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>-315231000</v>
+        <v>-315000000</v>
       </c>
       <c r="C29">
-        <v>110755000</v>
+        <v>111000000</v>
       </c>
       <c r="D29">
-        <v>52053000</v>
+        <v>52000000</v>
       </c>
       <c r="E29">
-        <v>143094000</v>
+        <v>143000000</v>
       </c>
       <c r="F29">
-        <v>69625000</v>
+        <v>70000000</v>
       </c>
       <c r="G29">
         <v>-21902000</v>
@@ -3832,8 +3943,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>-3.1533</v>
@@ -3954,8 +4065,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-3.1533</v>
@@ -4076,8 +4187,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-3.1533</v>
@@ -4198,8 +4309,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-3.1533</v>
@@ -4320,8 +4431,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>99969000</v>
@@ -4442,23 +4553,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.267</v>
+        <v>0.2673</v>
       </c>
       <c r="C35">
-        <v>0.257</v>
+        <v>0.2673</v>
       </c>
       <c r="D35">
-        <v>0.2525</v>
+        <v>0.2964</v>
       </c>
       <c r="E35">
-        <v>0.2664</v>
+        <v>0.2713</v>
       </c>
       <c r="F35">
-        <v>0.2671</v>
+        <v>0.2097</v>
       </c>
       <c r="G35">
         <v>0.1011</v>
@@ -4564,14 +4675,14 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.08649999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="C36">
-        <v>0.2004</v>
+        <v>0.2005</v>
       </c>
       <c r="D36">
         <v>0.1418</v>
